--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Icam1-Spn.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Icam1-Spn.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>144.843106</v>
+        <v>30.87085333333333</v>
       </c>
       <c r="H2">
-        <v>434.529318</v>
+        <v>92.61256</v>
       </c>
       <c r="I2">
-        <v>0.6517202749316883</v>
+        <v>0.2985789950947061</v>
       </c>
       <c r="J2">
-        <v>0.6517202749316884</v>
+        <v>0.2985789950947061</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.7483270000000001</v>
+        <v>0.1149353333333333</v>
       </c>
       <c r="N2">
-        <v>2.244981</v>
+        <v>0.344806</v>
       </c>
       <c r="O2">
-        <v>0.2123245966460564</v>
+        <v>0.05719122335670149</v>
       </c>
       <c r="P2">
-        <v>0.2123245966460564</v>
+        <v>0.05719122335670149</v>
       </c>
       <c r="Q2">
-        <v>108.390006983662</v>
+        <v>3.548151818151111</v>
       </c>
       <c r="R2">
-        <v>975.5100628529581</v>
+        <v>31.93336636336</v>
       </c>
       <c r="S2">
-        <v>0.1383762445009277</v>
+        <v>0.01707609799808081</v>
       </c>
       <c r="T2">
-        <v>0.1383762445009277</v>
+        <v>0.01707609799808082</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>144.843106</v>
+        <v>30.87085333333333</v>
       </c>
       <c r="H3">
-        <v>434.529318</v>
+        <v>92.61256</v>
       </c>
       <c r="I3">
-        <v>0.6517202749316883</v>
+        <v>0.2985789950947061</v>
       </c>
       <c r="J3">
-        <v>0.6517202749316884</v>
+        <v>0.2985789950947061</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.776121</v>
+        <v>1.894732</v>
       </c>
       <c r="N3">
-        <v>8.328363</v>
+        <v>5.684196</v>
       </c>
       <c r="O3">
-        <v>0.7876754033539436</v>
+        <v>0.9428087766432985</v>
       </c>
       <c r="P3">
-        <v>0.7876754033539437</v>
+        <v>0.9428087766432984</v>
       </c>
       <c r="Q3">
-        <v>402.101988271826</v>
+        <v>58.49199367797333</v>
       </c>
       <c r="R3">
-        <v>3618.917894446434</v>
+        <v>526.42794310176</v>
       </c>
       <c r="S3">
-        <v>0.5133440304307606</v>
+        <v>0.2815028970966253</v>
       </c>
       <c r="T3">
-        <v>0.5133440304307607</v>
+        <v>0.2815028970966253</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.79359700000001</v>
+        <v>33.793597</v>
       </c>
       <c r="H4">
         <v>101.380791</v>
       </c>
       <c r="I4">
-        <v>0.1520539909422453</v>
+        <v>0.3268474027571036</v>
       </c>
       <c r="J4">
-        <v>0.1520539909422453</v>
+        <v>0.3268474027571037</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.7483270000000001</v>
+        <v>0.1149353333333333</v>
       </c>
       <c r="N4">
-        <v>2.244981</v>
+        <v>0.344806</v>
       </c>
       <c r="O4">
-        <v>0.2123245966460564</v>
+        <v>0.05719122335670149</v>
       </c>
       <c r="P4">
-        <v>0.2123245966460564</v>
+        <v>0.05719122335670149</v>
       </c>
       <c r="Q4">
-        <v>25.28866106221901</v>
+        <v>3.884078335727333</v>
       </c>
       <c r="R4">
-        <v>227.5979495599711</v>
+        <v>34.956705021546</v>
       </c>
       <c r="S4">
-        <v>0.03228480229523535</v>
+        <v>0.01869280281463928</v>
       </c>
       <c r="T4">
-        <v>0.03228480229523535</v>
+        <v>0.01869280281463928</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>33.79359700000001</v>
+        <v>33.793597</v>
       </c>
       <c r="H5">
         <v>101.380791</v>
       </c>
       <c r="I5">
-        <v>0.1520539909422453</v>
+        <v>0.3268474027571036</v>
       </c>
       <c r="J5">
-        <v>0.1520539909422453</v>
+        <v>0.3268474027571037</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.776121</v>
+        <v>1.894732</v>
       </c>
       <c r="N5">
-        <v>8.328363</v>
+        <v>5.684196</v>
       </c>
       <c r="O5">
-        <v>0.7876754033539436</v>
+        <v>0.9428087766432985</v>
       </c>
       <c r="P5">
-        <v>0.7876754033539437</v>
+        <v>0.9428087766432984</v>
       </c>
       <c r="Q5">
-        <v>93.81511429723702</v>
+        <v>64.029809631004</v>
       </c>
       <c r="R5">
-        <v>844.3360286751331</v>
+        <v>576.268286679036</v>
       </c>
       <c r="S5">
-        <v>0.11976918864701</v>
+        <v>0.3081545999424644</v>
       </c>
       <c r="T5">
-        <v>0.11976918864701</v>
+        <v>0.3081545999424644</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.273049333333333</v>
+        <v>2.981185666666667</v>
       </c>
       <c r="H6">
-        <v>6.819148</v>
+        <v>8.943557</v>
       </c>
       <c r="I6">
-        <v>0.01022756537997252</v>
+        <v>0.02883365130639111</v>
       </c>
       <c r="J6">
-        <v>0.01022756537997253</v>
+        <v>0.02883365130639111</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.7483270000000001</v>
+        <v>0.1149353333333333</v>
       </c>
       <c r="N6">
-        <v>2.244981</v>
+        <v>0.344806</v>
       </c>
       <c r="O6">
-        <v>0.2123245966460564</v>
+        <v>0.05719122335670149</v>
       </c>
       <c r="P6">
-        <v>0.2123245966460564</v>
+        <v>0.05719122335670149</v>
       </c>
       <c r="Q6">
-        <v>1.700984188465333</v>
+        <v>0.3426435683268889</v>
       </c>
       <c r="R6">
-        <v>15.308857696188</v>
+        <v>3.083792114942</v>
       </c>
       <c r="S6">
-        <v>0.002171563693973837</v>
+        <v>0.001649031792053062</v>
       </c>
       <c r="T6">
-        <v>0.002171563693973837</v>
+        <v>0.001649031792053061</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.273049333333333</v>
+        <v>2.981185666666667</v>
       </c>
       <c r="H7">
-        <v>6.819148</v>
+        <v>8.943557</v>
       </c>
       <c r="I7">
-        <v>0.01022756537997252</v>
+        <v>0.02883365130639111</v>
       </c>
       <c r="J7">
-        <v>0.01022756537997253</v>
+        <v>0.02883365130639111</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.776121</v>
+        <v>1.894732</v>
       </c>
       <c r="N7">
-        <v>8.328363</v>
+        <v>5.684196</v>
       </c>
       <c r="O7">
-        <v>0.7876754033539436</v>
+        <v>0.9428087766432985</v>
       </c>
       <c r="P7">
-        <v>0.7876754033539437</v>
+        <v>0.9428087766432984</v>
       </c>
       <c r="Q7">
-        <v>6.310259988302666</v>
+        <v>5.648547880574667</v>
       </c>
       <c r="R7">
-        <v>56.792339894724</v>
+        <v>50.836930925172</v>
       </c>
       <c r="S7">
-        <v>0.008056001685998689</v>
+        <v>0.02718461951433804</v>
       </c>
       <c r="T7">
-        <v>0.00805600168599869</v>
+        <v>0.02718461951433804</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>41.33760066666667</v>
+        <v>35.74694633333333</v>
       </c>
       <c r="H8">
-        <v>124.012802</v>
+        <v>107.240839</v>
       </c>
       <c r="I8">
-        <v>0.1859981687460937</v>
+        <v>0.3457399508417991</v>
       </c>
       <c r="J8">
-        <v>0.1859981687460938</v>
+        <v>0.3457399508417991</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.7483270000000001</v>
+        <v>0.1149353333333333</v>
       </c>
       <c r="N8">
-        <v>2.244981</v>
+        <v>0.344806</v>
       </c>
       <c r="O8">
-        <v>0.2123245966460564</v>
+        <v>0.05719122335670149</v>
       </c>
       <c r="P8">
-        <v>0.2123245966460564</v>
+        <v>0.05719122335670149</v>
       </c>
       <c r="Q8">
-        <v>30.93404269408467</v>
+        <v>4.108587192470445</v>
       </c>
       <c r="R8">
-        <v>278.4063842467621</v>
+        <v>36.977284732234</v>
       </c>
       <c r="S8">
-        <v>0.03949198615591949</v>
+        <v>0.01977329075192833</v>
       </c>
       <c r="T8">
-        <v>0.03949198615591949</v>
+        <v>0.01977329075192832</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>41.33760066666667</v>
+        <v>35.74694633333333</v>
       </c>
       <c r="H9">
-        <v>124.012802</v>
+        <v>107.240839</v>
       </c>
       <c r="I9">
-        <v>0.1859981687460937</v>
+        <v>0.3457399508417991</v>
       </c>
       <c r="J9">
-        <v>0.1859981687460938</v>
+        <v>0.3457399508417991</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.776121</v>
+        <v>1.894732</v>
       </c>
       <c r="N9">
-        <v>8.328363</v>
+        <v>5.684196</v>
       </c>
       <c r="O9">
-        <v>0.7876754033539436</v>
+        <v>0.9428087766432985</v>
       </c>
       <c r="P9">
-        <v>0.7876754033539437</v>
+        <v>0.9428087766432984</v>
       </c>
       <c r="Q9">
-        <v>114.7581813003473</v>
+        <v>67.73088312004934</v>
       </c>
       <c r="R9">
-        <v>1032.823631703126</v>
+        <v>609.577948080444</v>
       </c>
       <c r="S9">
-        <v>0.1465061825901743</v>
+        <v>0.3259666600898708</v>
       </c>
       <c r="T9">
-        <v>0.1465061825901743</v>
+        <v>0.3259666600898707</v>
       </c>
     </row>
   </sheetData>
